--- a/DAY-02/output/output.xlsx
+++ b/DAY-02/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,282 +491,282 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agneta</t>
+          <t>Gwenny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Penelli</t>
+          <t>Scorah</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>apenelli3@chronoengine.com</t>
+          <t>gscorah3@google.com.br</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>916-301-7464</t>
+          <t>745-154-9953</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71 Fisk Point</t>
+          <t>86 Comanche Avenue</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Merritt</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>94291</t>
+          <t>V1K</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>British Columbia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lydia</t>
+          <t>Cull</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carlon</t>
+          <t>Cranson</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>lcarlon5@angelfire.com</t>
+          <t>ccransonh@loc.gov</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>715-665-5846</t>
+          <t>903-284-1651</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65 Golden Leaf Way</t>
+          <t>2406 Amoth Drive</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Palmas De Gran Canaria, Las</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>84104 CEDEX</t>
+          <t>35015</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Canarias</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaylor</t>
+          <t>Corbie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Folger</t>
+          <t>Roly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>gfolgern@unc.edu</t>
+          <t>crolyj@google.ca</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>510-878-0060</t>
+          <t>216-920-6408</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5 Center Way</t>
+          <t>7 Mifflin Point</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Göteborg</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>411 31</t>
+          <t>76199</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Baden-Württemberg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gregor</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Imbrey</t>
+          <t>Pettigree</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gimbrey14@elpais.com</t>
+          <t>upettigreem@theguardian.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>916-832-6785</t>
+          <t>926-585-5472</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2 Esch Drive</t>
+          <t>49 Veith Circle</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11005</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Andalucia</t>
+          <t>Kanton Basel-Stadt</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Riki</t>
+          <t>Elias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Steely</t>
+          <t>Elleyne</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rsteely1f@icq.com</t>
+          <t>eelleyne10@bloomberg.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>294-574-1237</t>
+          <t>427-978-0668</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6196 Stephen Terrace</t>
+          <t>9 Summerview Alley</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Sneek</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>44302 CEDEX 3</t>
+          <t>8604</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Provincie Friesland</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jaquenette</t>
+          <t>Ramsay</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Speariett</t>
+          <t>Jaycock</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jspeariett1j@oracle.com</t>
+          <t>rjaycock13@blogtalkradio.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>809-261-4678</t>
+          <t>131-970-4145</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8847 Moose Center</t>
+          <t>46742 Harper Road</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Funchalinho</t>
+          <t>Serra de Água</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -776,547 +776,547 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2825-106</t>
+          <t>9350-324</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Setúbal</t>
+          <t>Ilha da Madeira</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Agnola</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Duer</t>
+          <t>Runacres</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cduer1r@canalblog.com</t>
+          <t>arunacres1j@dmoz.org</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>605-212-8935</t>
+          <t>460-395-7681</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5 Summer Ridge Park</t>
+          <t>83016 Swallow Place</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Valbo</t>
+          <t>Osoyoos</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>818 31</t>
+          <t>N9V</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Gävleborg</t>
+          <t>British Columbia</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Donall</t>
+          <t>Jocelyn</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Garvagh</t>
+          <t>Havvock</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dgarvagh1t@xrea.com</t>
+          <t>jhavvock1m@mapy.cz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>999-528-8338</t>
+          <t>675-886-6394</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16 Golden Leaf Pass</t>
+          <t>15 Corscot Avenue</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Niederwaldkirchen</t>
+          <t>Lindome</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>437 92</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Oberösterreich</t>
+          <t>Västra Götaland</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lodovichi</t>
+          <t>Mompesson</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jlodovichi23@ted.com</t>
+          <t>cmompesson1n@flickr.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>868-222-6344</t>
+          <t>166-154-2301</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9 Ilene Road</t>
+          <t>0330 Merchant Trail</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Löddeköpinge</t>
+          <t>København</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>246 43</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>Region Hovedstaden</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Em</t>
+          <t>Birch</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Defty</t>
+          <t>Gostick</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>edefty26@arizona.edu</t>
+          <t>bgostick1r@tiny.cc</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>977-243-9321</t>
+          <t>456-631-9464</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2529 Meadow Valley Road</t>
+          <t>3447 Charing Cross Lane</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Lidingö</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>181 23</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jeramie</t>
+          <t>Chrystal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vallens</t>
+          <t>Mounsey</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jvallens2c@gizmodo.com</t>
+          <t>cmounsey26@dropbox.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>479-194-7517</t>
+          <t>895-517-5375</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>35326 Ryan Drive</t>
+          <t>2 Eastlawn Avenue</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Borås</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>504 50</t>
+          <t>0620</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Martie</t>
+          <t>Dieter</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dampier</t>
+          <t>Blastock</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>mdampier31@bloomberg.com</t>
+          <t>dblastock2i@biglobe.ne.jp</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802-429-4029</t>
+          <t>916-790-2267</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>79 Eagle Crest Court</t>
+          <t>122 Service Hill</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tidaholm</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>522 32</t>
+          <t>94291</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>California</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jaymie</t>
+          <t>Marlo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Crebo</t>
+          <t>Vautrey</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jcrebo33@wikispaces.com</t>
+          <t>mvautrey2k@discovery.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>841-201-4070</t>
+          <t>154-513-7939</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>08088 Swallow Alley</t>
+          <t>672 Burrows Circle</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Saint-Laurent-du-Var</t>
+          <t>Ponte da Pedra</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>06721 CEDEX</t>
+          <t>2415-177</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Leiria</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Perl</t>
+          <t>Zach</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Gribbon</t>
+          <t>Laffan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pgribbon3k@jiathis.com</t>
+          <t>zlaffan2n@joomla.org</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>145-855-4089</t>
+          <t>545-314-6595</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>537 Bayside Court</t>
+          <t>20235 Corscot Park</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Deauville</t>
+          <t>Independencia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14804 CEDEX</t>
+          <t>30815</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Basse-Normandie</t>
+          <t>Chiapas</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Shane</t>
+          <t>Beau</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lightbowne</t>
+          <t>Henrion</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>slightbowne3l@rediff.com</t>
+          <t>bhenrion3w@yale.edu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>663-375-4036</t>
+          <t>646-132-4535</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32230 Scoville Trail</t>
+          <t>0 Hovde Street</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Ponoka</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>T4J</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Alberta</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Charmaine</t>
+          <t>Hurley</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Riden</t>
+          <t>Mityukov</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>criden3p@foxnews.com</t>
+          <t>hmityukov3x@shareasale.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>294-220-5287</t>
+          <t>916-411-4027</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8139 Stephen Junction</t>
+          <t>35 Nancy Trail</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hörby</t>
+          <t>Gibsons</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>242 35</t>
+          <t>L6R</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Skåne</t>
+          <t>British Columbia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sander</t>
+          <t>Carling</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hanby</t>
+          <t>Banner</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>shanby3q@stumbleupon.com</t>
+          <t>cbanner3y@who.int</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>354-953-1276</t>
+          <t>617-450-7658</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>71900 Pankratz Circle</t>
+          <t>26033 Kedzie Trail</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Seixo Alvo</t>
+          <t>Ferreiras</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1326,447 +1326,447 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4415-739</t>
+          <t>8200-567</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Faro</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jozef</t>
+          <t>Bell</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ferreo</t>
+          <t>Spooner</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jferreo43@myspace.com</t>
+          <t>bspooner41@vimeo.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>178-542-4681</t>
+          <t>508-309-1634</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4 Jenna Pass</t>
+          <t>08 Saint Paul Trail</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cergy-Pontoise</t>
+          <t>North York</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>95072 CEDEX 1</t>
+          <t>M3H</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Ontario</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Drusilla</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bloor</t>
+          <t>Poznanski</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>dbloor44@addtoany.com</t>
+          <t>dpoznanski4g@artisteer.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>572-705-4001</t>
+          <t>220-341-1601</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3421 Chinook Terrace</t>
+          <t>706 Pearson Trail</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>San Isidro</t>
+          <t>Campo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>74960</t>
+          <t>4715-477</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Braga</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lou</t>
+          <t>Jessee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kellock</t>
+          <t>Grancher</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>lkellock49@ocn.ne.jp</t>
+          <t>jgrancher4m@virginia.edu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>219-526-5173</t>
+          <t>807-989-7191</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>62 Holy Cross Crossing</t>
+          <t>3 Hazelcrest Junction</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Gary</t>
+          <t>Arcossó</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>46406</t>
+          <t>5425-025</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Vila Real</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Isidro</t>
+          <t>North</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Thibodeaux</t>
+          <t>Manuaud</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ithibodeaux4a@ezinearticles.com</t>
+          <t>nmanuaud4s@baidu.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>197-743-9767</t>
+          <t>672-988-4478</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>374 Waywood Lane</t>
+          <t>4 Forest Terrace</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Eastern Suburbs Mc</t>
+          <t>Shah Alam</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>40542</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>New South Wales</t>
+          <t>Selangor</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jeno</t>
+          <t>Cory</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MacSkeaghan</t>
+          <t>Trahmel</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jmacskeaghan4k@jimdo.com</t>
+          <t>ctrahmel4u@yahoo.co.jp</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>794-866-6048</t>
+          <t>594-572-7251</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>94581 Miller Park</t>
+          <t>7 Sunbrook Center</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Göteborg</t>
+          <t>Sobreira</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>411 21</t>
+          <t>5090-017</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Vila Real</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Pam</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zmitruk</t>
+          <t>Clair</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>mzmitruk4v@cornell.edu</t>
+          <t>pclair50@rediff.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>589-297-0515</t>
+          <t>933-622-4055</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>22074 Crowley Circle</t>
+          <t>096 Independence Avenue</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sobral da Adiça</t>
+          <t>Aix-en-Provence</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7875-354</t>
+          <t>13853 CEDEX 3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Beja</t>
+          <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cob</t>
+          <t>Gage</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Martonfi</t>
+          <t>Cutts</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cmartonfi4y@msu.edu</t>
+          <t>gcutts57@twitpic.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>414-750-9415</t>
+          <t>361-643-0289</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>602 Forest Plaza</t>
+          <t>55423 Anhalt Way</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Saint-Maixent-l'École</t>
+          <t>Santiago dos Velhos</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>79404 CEDEX</t>
+          <t>2630-505</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Poitou-Charentes</t>
+          <t>Lisboa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bell</t>
+          <t>Romain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Butterfint</t>
+          <t>Klainman</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>bbutterfint53@yahoo.com</t>
+          <t>rklainman59@icio.us</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>869-630-5659</t>
+          <t>494-422-7570</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>69442 Mccormick Crossing</t>
+          <t>2 Trailsway Trail</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Saint-Gratien</t>
+          <t>Azurva</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>95219 CEDEX</t>
+          <t>3800-745</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Aveiro</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Peggie</t>
+          <t>Horten</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Meach</t>
+          <t>Hattoe</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>pmeach54@imageshack.us</t>
+          <t>hhattoe5k@businessweek.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>607-428-8037</t>
+          <t>299-913-6192</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>427 Coleman Avenue</t>
+          <t>42407 Randy Crossing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Gustavsberg</t>
+          <t>Borlänge</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1776,47 +1776,47 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>134 40</t>
+          <t>781 96</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Dalarna</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Andriana</t>
+          <t>Aindrea</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ruppelin</t>
+          <t>Schwander</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>aruppelin55@nydailynews.com</t>
+          <t>aschwander6t@slate.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>297-827-9180</t>
+          <t>485-328-4202</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>00248 Sloan Parkway</t>
+          <t>7 Burrows Plaza</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Saint-Priest</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1826,97 +1826,97 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>80089 CEDEX 2</t>
+          <t>69794 CEDEX</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Picardie</t>
+          <t>Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Kahaleel</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cripps</t>
+          <t>Gregorowicz</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>icripps5g@twitpic.com</t>
+          <t>kgregorowicz7g@miibeian.gov.cn</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>908-832-7814</t>
+          <t>930-763-7742</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>67182 Chinook Street</t>
+          <t>8 Raven Parkway</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>L'Île-Perrot</t>
+          <t>Évreux</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>H9X</t>
+          <t>27036 CEDEX</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Haute-Normandie</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Adaline</t>
+          <t>Ulrike</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Watkin</t>
+          <t>Bambra</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>awatkin5n@reddit.com</t>
+          <t>ubambra7k@deviantart.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>825-151-2194</t>
+          <t>608-991-9705</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>084 Killdeer Pass</t>
+          <t>6 Shasta Place</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Serra de Santa Marinha</t>
+          <t>Serra da Boa Viagem</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3080-570</t>
+          <t>3080-352</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,486 +1937,486 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wadsworth</t>
+          <t>Jeffie</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Robathon</t>
+          <t>Montrose</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>wrobathon5p@un.org</t>
+          <t>jmontrose7s@senate.gov</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>157-261-3402</t>
+          <t>268-822-8006</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>142 Norway Maple Street</t>
+          <t>8 Buhler Street</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nybro</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>382 43</t>
+          <t>67961 CEDEX 9</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Alsace</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chuck</t>
+          <t>Lamar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Glas</t>
+          <t>Durnford</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cglas5r@exblog.jp</t>
+          <t>ldurnford7t@technorati.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>648-206-9548</t>
+          <t>656-753-0528</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1 Arapahoe Circle</t>
+          <t>53475 Fallview Road</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Yeşilköy</t>
+          <t>Katwijk</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>55530</t>
+          <t>2228</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Samsun</t>
+          <t>Provincie Zuid-Holland</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Selie</t>
+          <t>Barnabas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quaintance</t>
+          <t>Chaunce</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>squaintance61@cisco.com</t>
+          <t>bchaunce7u@gmpg.org</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>626-286-3384</t>
+          <t>763-623-2769</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9717 Farmco Court</t>
+          <t>1297 Cordelia Parkway</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>Cherbourg-Octeville</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>602 09</t>
+          <t>50109 CEDEX</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Basse-Normandie</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Arabela</t>
+          <t>Ada</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MacAskill</t>
+          <t>Spiniello</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>amacaskill6f@paypal.com</t>
+          <t>aspiniello83@ning.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>407-987-1438</t>
+          <t>871-965-4835</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0 Mosinee Street</t>
+          <t>0487 Hoffman Place</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Orlando</t>
+          <t>Funchalinho</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>32868</t>
+          <t>2825-106</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Setúbal</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Peyton</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Woodcock</t>
+          <t>Barszczewski</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>pwoodcock6i@uol.com.br</t>
+          <t>cbarszczewski84@guardian.co.uk</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>157-612-2505</t>
+          <t>132-769-8653</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>35209 Pankratz Way</t>
+          <t>5 Burning Wood Pass</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Odivelas</t>
+          <t>Kista</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>7900-374</t>
+          <t>164 35</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Beja</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Marianna</t>
+          <t>Esdras</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Gilhool</t>
+          <t>Kendrick</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>mgilhool6m@netvibes.com</t>
+          <t>ekendrick8a@smh.com.au</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>264-957-8396</t>
+          <t>950-282-2118</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4069 Fulton Pass</t>
+          <t>65325 Banding Parkway</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Martingança</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2445-705</t>
+          <t>106 42</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ileana</t>
+          <t>Cristabel</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Domnick</t>
+          <t>Harrad</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>idomnick6s@narod.ru</t>
+          <t>charrad8i@shutterfly.com</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>362-425-3758</t>
+          <t>362-783-1986</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>06 Oak Valley Drive</t>
+          <t>232 Little Fleur Junction</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hamburg Winterhude</t>
+          <t>Bjärred</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22303</t>
+          <t>237 24</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Skåne</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mac</t>
+          <t>Pembroke</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Stoggles</t>
+          <t>Canedo</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>mstoggles6t@msu.edu</t>
+          <t>pcanedo8p@stumbleupon.com</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>815-810-2362</t>
+          <t>893-848-6513</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>528 Blaine Avenue</t>
+          <t>12 Brickson Park Plaza</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rockford</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>61105</t>
+          <t>59800</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Kuala Lumpur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Doug</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eastlake</t>
+          <t>Geist</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>deastlake6x@telegraph.co.uk</t>
+          <t>sgeist8q@comcast.net</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>710-876-1929</t>
+          <t>448-842-9096</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>532 Scofield Court</t>
+          <t>2 Union Court</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Glasgow</t>
+          <t>Fontaínhas</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>2300-174</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Santarém</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Giorgi</t>
+          <t>Kellyann</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jest</t>
+          <t>Sweetzer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gjest6z@trellian.com</t>
+          <t>ksweetzer8w@stanford.edu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>862-208-8082</t>
+          <t>349-373-1530</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>785 Harper Pass</t>
+          <t>5828 Becker Alley</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Roissy Charles-de-Gaulle</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2426,897 +2426,897 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>95719 CEDEX 1</t>
+          <t>35022 CEDEX 2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Bretagne</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Blisse</t>
+          <t>Odo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kippen</t>
+          <t>Bucke</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>bkippen70@amazon.de</t>
+          <t>obucke93@google.com</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>602-193-5929</t>
+          <t>632-148-6805</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>302 Waywood Crossing</t>
+          <t>9 Schurz Park</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Peoria</t>
+          <t>Ourentã</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>85383</t>
+          <t>3060-445</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Coimbra</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Ninette</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mitham</t>
+          <t>Cranmer</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ymitham76@ebay.com</t>
+          <t>ncranmer95@nps.gov</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>407-179-4723</t>
+          <t>863-317-9375</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>39 Larry Pass</t>
+          <t>26 Fisk Parkway</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carvalhal da Aroeira</t>
+          <t>Castelnaudary</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2350-697</t>
+          <t>11493 CEDEX</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Santarém</t>
+          <t>Languedoc-Roussillon</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Winni</t>
+          <t>Arch</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Matias</t>
+          <t>Kolodziejski</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>wmatias77@clickbank.net</t>
+          <t>akolodziejski9b@amazonaws.com</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>844-677-2022</t>
+          <t>164-637-4833</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>565 Raven Street</t>
+          <t>90572 Anderson Terrace</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Melun</t>
+          <t>La Esperanza</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>77004 CEDEX</t>
+          <t>95590</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Veracruz Llave</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Amerigo</t>
+          <t>Merrick</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hartman</t>
+          <t>Domino</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ahartman7d@msu.edu</t>
+          <t>mdomino9s@opensource.org</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>305-956-9405</t>
+          <t>200-503-6196</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>391 Vernon Circle</t>
+          <t>42 Anthes Road</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Portela</t>
+          <t>Gravelbourg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4750-445</t>
+          <t>G8V</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Saskatchewan</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>267</v>
+        <v>362</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ann</t>
+          <t>Zebadiah</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Woodham</t>
+          <t>Allatt</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>awoodham7e@amazon.co.jp</t>
+          <t>zallatta1@youku.com</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>692-366-9046</t>
+          <t>326-751-3360</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>222 Valley Edge Court</t>
+          <t>881 Dapin Circle</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Hendaye</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>33209</t>
+          <t>64704 CEDEX</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Asturias</t>
+          <t>Aquitaine</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>268</v>
+        <v>365</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Skell</t>
+          <t>Sky</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ramble</t>
+          <t>McMurty</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>sramble7f@springer.com</t>
+          <t>smcmurtya4@studiopress.com</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>577-811-3723</t>
+          <t>183-659-1068</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>40 Tony Trail</t>
+          <t>30329 East Park</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Luleå</t>
+          <t>São Tomé</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>972 42</t>
+          <t>4795-549</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Norrbotten</t>
+          <t>Porto</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cami</t>
+          <t>Mahalia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Davenell</t>
+          <t>Olyfant</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cdavenell7m@wired.com</t>
+          <t>molyfanta5@cisco.com</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>952-403-4361</t>
+          <t>128-932-2178</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2182 Bonner Circle</t>
+          <t>05 Shasta Terrace</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Young America</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>55573</t>
+          <t>69362 CEDEX 07</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mayne</t>
+          <t>Corilla</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cranna</t>
+          <t>McKelloch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>mcranna7v@rediff.com</t>
+          <t>cmckellocha9@squarespace.com</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>515-466-7699</t>
+          <t>250-424-0359</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>91259 Northland Terrace</t>
+          <t>33346 Mccormick Hill</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nîmes</t>
+          <t>Tanumshede</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>30910 CEDEX 2</t>
+          <t>457 81</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Languedoc-Roussillon</t>
+          <t>Västra Götaland</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Laurie</t>
+          <t>Gus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Klais</t>
+          <t>Scala</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>lklais85@ameblo.jp</t>
+          <t>gscalaaa@theglobeandmail.com</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>933-607-6876</t>
+          <t>861-278-4362</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>870 Golf View Place</t>
+          <t>01014 Tony Drive</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>Zselickislak</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>605 93</t>
+          <t>7404</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Östergötland</t>
+          <t>Somogy</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Daryl</t>
+          <t>Petronille</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ricards</t>
+          <t>Parr</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>dricards89@hhs.gov</t>
+          <t>pparrao@mozilla.org</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>719-838-2543</t>
+          <t>360-413-5292</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1 Northland Terrace</t>
+          <t>50530 Heffernan Trail</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Kuantan</t>
+          <t>Olympia</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>25646</t>
+          <t>98506</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Pahang</t>
+          <t>Washington</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dasha</t>
+          <t>Alphard</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wein</t>
+          <t>Raecroft</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>dwein8u@bandcamp.com</t>
+          <t>araecroftap@marketwatch.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>619-816-8457</t>
+          <t>662-931-7268</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3 Hovde Drive</t>
+          <t>449 Crest Line Lane</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Penticton</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>92105</t>
+          <t>V2A</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>British Columbia</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Domenic</t>
+          <t>Rowan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pocknoll</t>
+          <t>MacGuffog</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>dpocknoll90@xrea.com</t>
+          <t>rmacguffogas@quantcast.com</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>365-363-2784</t>
+          <t>836-451-5374</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>550 Lien Pass</t>
+          <t>34 Dunning Avenue</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Estreito Câmara de Lobos</t>
+          <t>Paris 12</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>9325-006</t>
+          <t>75609 CEDEX 12</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Ilha da Madeira</t>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Adrianna</t>
+          <t>Dorri</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vinker</t>
+          <t>Trinder</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>avinker9d@drupal.org</t>
+          <t>dtrinderau@netvibes.com</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>960-743-5186</t>
+          <t>408-501-1089</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>71 Manitowish Court</t>
+          <t>4009 Eggendart Hill</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>West Kelowna</t>
+          <t>Paris 11</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>V1Z</t>
+          <t>75547 CEDEX 11</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jock</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hammill</t>
+          <t>Bunstone</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jhammill9e@delicious.com</t>
+          <t>dbunstoneb2@desdev.cn</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>805-851-5304</t>
+          <t>227-848-2058</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>21 Cody Drive</t>
+          <t>78 Grim Center</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>Herrljunga</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>55124</t>
+          <t>524 24</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Rheinland-Pfalz</t>
+          <t>Västra Götaland</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Griselda</t>
+          <t>Verne</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Carstairs</t>
+          <t>Joskovitch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>gcarstairs9f@arstechnica.com</t>
+          <t>vjoskovitchbm@google.cn</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>319-495-7116</t>
+          <t>719-264-0144</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>9 Pennsylvania Junction</t>
+          <t>161 Browning Plaza</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Labrador City</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>A2V</t>
+          <t>80945</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Newfoundland and Labrador</t>
+          <t>Colorado</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ranna</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Maggiori</t>
+          <t>Melville</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rmaggiori9k@seesaa.net</t>
+          <t>rmelvillebr@cisco.com</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>886-898-6288</t>
+          <t>742-238-4381</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1 Steensland Road</t>
+          <t>194 Welch Park</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Ljungby</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>44269</t>
+          <t>341 70</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Kronoberg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>346</v>
+        <v>437</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lammond</t>
+          <t>Gerick</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Platts</t>
+          <t>Beckmann</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>lplatts9l@deliciousdays.com</t>
+          <t>gbeckmannc4@prnewswire.com</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>285-750-6110</t>
+          <t>404-612-8552</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>9 Katie Crossing</t>
+          <t>92 Aberg Hill</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Badajoz</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>06010</t>
+          <t>31136</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Extremadura</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Klemens</t>
+          <t>Deana</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Revening</t>
+          <t>Connold</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>krevening9n@columbia.edu</t>
+          <t>dconnoldc6@rambler.ru</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>386-983-3608</t>
+          <t>344-912-3873</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>64657 Merrick Road</t>
+          <t>02 Harper Road</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Angoulême</t>
+          <t>Apt</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3326,397 +3326,397 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>16904 CEDEX 9</t>
+          <t>84404 CEDEX</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Poitou-Charentes</t>
+          <t>Provence-Alpes-Côte d'Azur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Idelle</t>
+          <t>Elden</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Betts</t>
+          <t>Houliston</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ibettsa1@comcast.net</t>
+          <t>ehoulistonc9@lycos.com</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>213-743-0324</t>
+          <t>961-419-5306</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8 Bluestem Crossing</t>
+          <t>0335 Esker Way</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Halle</t>
+          <t>Freiria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>06126</t>
+          <t>2040-105</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sachsen-Anhalt</t>
+          <t>Santarém</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>363</v>
+        <v>443</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Arlena</t>
+          <t>Burgess</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fussell</t>
+          <t>Stollen</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>afussella2@prnewswire.com</t>
+          <t>bstollenca@cbslocal.com</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>641-389-0228</t>
+          <t>405-359-8059</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>69 Fallview Circle</t>
+          <t>203 Crowley Lane</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Odrinhas</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2705-707</t>
+          <t>73173</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Oklahoma</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ewell</t>
+          <t>Rodge</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Athow</t>
+          <t>Legg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>eathowad@cdc.gov</t>
+          <t>rleggck@elpais.com</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>839-519-9146</t>
+          <t>702-850-3451</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>398 Maple Wood Road</t>
+          <t>03184 Anniversary Trail</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lemende</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4785-025</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sylvester</t>
+          <t>Odilia</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Otteridge</t>
+          <t>Platfoot</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sotteridgeaz@icq.com</t>
+          <t>oplatfootcw@census.gov</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>693-106-0657</t>
+          <t>748-327-1316</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>02374 Clove Center</t>
+          <t>60564 Lerdahl Terrace</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Linköping</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>589 41</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Provincie Zuid-Holland</t>
+          <t>Östergötland</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lynde</t>
+          <t>Marsha</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wiltshire</t>
+          <t>Braben</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>lwiltshireba@51.la</t>
+          <t>mbrabend0@bing.com</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>117-168-7629</t>
+          <t>299-897-5965</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>47744 Old Shore Center</t>
+          <t>6650 Emmet Road</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>São Sebastião</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>58805</t>
+          <t>4990-640</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Michoacan De Ocampo</t>
+          <t>Viana do Castelo</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Roderich</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jirousek</t>
+          <t>Backsal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rjirousekbe@dedecms.com</t>
+          <t>fbacksald2@mail.ru</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>969-798-7392</t>
+          <t>334-568-8327</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1760 Harbort Parkway</t>
+          <t>3472 Hovde Plaza</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Smithers</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>LS6</t>
+          <t>P3N</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>British Columbia</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Trudy</t>
+          <t>Kelsey</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Trudgion</t>
+          <t>Klaves</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ttrudgionbn@privacy.gov.au</t>
+          <t>kklavesd7@domainmarket.com</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>936-206-8782</t>
+          <t>500-944-8091</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>99431 Prairie Rose Alley</t>
+          <t>37300 Rutledge Point</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Askim</t>
+          <t>Monte Leite</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>436 23</t>
+          <t>2765-317</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Lisboa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Idette</t>
+          <t>Eada</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jecock</t>
+          <t>How</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ijecockc3@github.com</t>
+          <t>ehowd9@devhub.com</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>118-964-1668</t>
+          <t>107-495-5058</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>30 Scoville Circle</t>
+          <t>0 Grim Street</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Casa Nova</t>
+          <t>Alpiarça</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3726,297 +3726,297 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4950-102</t>
+          <t>2090-023</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Viana do Castelo</t>
+          <t>Santarém</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cymbre</t>
+          <t>Duffie</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Melchior</t>
+          <t>Tyers</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cmelchiorcd@accuweather.com</t>
+          <t>dtyersdf@ovh.net</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>798-128-9492</t>
+          <t>331-235-3546</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>553 Towne Circle</t>
+          <t>17474 Loomis Junction</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Oliveirinha</t>
+          <t>Saint-Raymond</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3430-393</t>
+          <t>G3L</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Québec</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Stavro</t>
+          <t>Kippie</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Menault</t>
+          <t>Tidbald</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>smenaultck@vkontakte.ru</t>
+          <t>ktidbalddr@ed.gov</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>508-864-3016</t>
+          <t>708-710-0540</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>3 Jana Alley</t>
+          <t>4839 Hintze Road</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pasadena</t>
+          <t>Paris La Défense</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>B2J</t>
+          <t>92907 CEDEX</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Newfoundland and Labrador</t>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Grata</t>
+          <t>Kelly</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kindell</t>
+          <t>Elphee</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>gkindellcl@oaic.gov.au</t>
+          <t>kelpheedv@free.fr</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>821-756-1056</t>
+          <t>891-594-7079</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>076 Columbus Road</t>
+          <t>6 Nancy Avenue</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Nusajaya</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>45356</t>
+          <t>79632</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Nordrhein-Westfalen</t>
+          <t>Johor</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Thurstan</t>
+          <t>Tannie</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Helleckas</t>
+          <t>Quayle</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>thelleckascn@squidoo.com</t>
+          <t>tquayledx@linkedin.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>104-812-3607</t>
+          <t>120-582-5378</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>212 Wayridge Road</t>
+          <t>4447 Claremont Court</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Saint-Jérôme</t>
+          <t>Lazaro Cardenas</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>J7Z</t>
+          <t>87326</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pavel</t>
+          <t>Sondra</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wensley</t>
+          <t>Walbrook</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>pwensleycq@drupal.org</t>
+          <t>swalbrookdy@fotki.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>867-236-6515</t>
+          <t>952-410-2918</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>243 Lien Way</t>
+          <t>0 Anderson Lane</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Châlons-en-Champagne</t>
+          <t>Estrada</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>51039 CEDEX</t>
+          <t>4600-661</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Champagne-Ardenne</t>
+          <t>Porto</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fairleigh</t>
+          <t>Cletus</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ormonde</t>
+          <t>Jamot</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>formondecs@apache.org</t>
+          <t>cjamote0@wsj.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>128-862-0177</t>
+          <t>542-878-1821</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4575 Continental Center</t>
+          <t>0 Sachs Junction</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Marteleira</t>
+          <t>São Pedro</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4026,347 +4026,347 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2530-342</t>
+          <t>3090-748</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Coimbra</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Janean</t>
+          <t>Phylys</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Gossart</t>
+          <t>Huff</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jgossartcv@bluehost.com</t>
+          <t>phuffeo@smh.com.au</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>791-725-2957</t>
+          <t>916-589-0088</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>58341 Lillian Crossing</t>
+          <t>7957 Spenser Lane</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Candelária</t>
+          <t>Woodstock</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>9950-125</t>
+          <t>E7M</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Ilha do Pico</t>
+          <t>Ontario</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dody</t>
+          <t>Merrie</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fateley</t>
+          <t>Barg</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>dfateleycy@trellian.com</t>
+          <t>mbarger@indiatimes.com</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>419-288-3062</t>
+          <t>808-362-0424</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>9 Lien Plaza</t>
+          <t>10291 Macpherson Trail</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>West End</t>
+          <t>Venda Nova</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>DN36</t>
+          <t>2970-841</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Setúbal</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lorianna</t>
+          <t>Ethel</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sooley</t>
+          <t>O' Markey</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>lsooleyd2@upenn.edu</t>
+          <t>eomarkeyes@naver.com</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>406-344-2889</t>
+          <t>142-384-7604</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11874 Donald Place</t>
+          <t>6 Logan Lane</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Santa Maria do Souto</t>
+          <t>Saint-Avold</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>4800-260</t>
+          <t>57509 CEDEX</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lorraine</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dulcy</t>
+          <t>Collete</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kareman</t>
+          <t>Heijne</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dkaremand8@yolasite.com</t>
+          <t>cheijneex@phpbb.com</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>550-546-8707</t>
+          <t>213-743-0791</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>221 Helena Street</t>
+          <t>64 7th Place</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>New-Richmond</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>J7R</t>
+          <t>90189</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>California</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Susanne</t>
+          <t>Pooh</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tarry</t>
+          <t>Kensley</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>starryd9@cpanel.net</t>
+          <t>pkensleyf3@ihg.com</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>142-842-6469</t>
+          <t>546-229-1882</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>26214 Homewood Hill</t>
+          <t>97692 Spenser Road</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Kuala Terengganu</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>20576</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Terengganu</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Roxane</t>
+          <t>Haven</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Allbrook</t>
+          <t>Roberts</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rallbrookdl@hexun.com</t>
+          <t>hrobertsf4@biglobe.ne.jp</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>706-115-3489</t>
+          <t>384-718-4417</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>70 Morningstar Hill</t>
+          <t>87 Briar Crest Park</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pécs</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>7631</t>
+          <t>28914</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Baranya</t>
+          <t>Madrid</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ewen</t>
+          <t>Melanie</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Martinolli</t>
+          <t>Ricciardiello</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>emartinollido@rediff.com</t>
+          <t>mricciardiellof5@mysql.com</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>482-772-9915</t>
+          <t>235-189-4455</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9476 Prairie Rose Hill</t>
+          <t>664 Melvin Circle</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Faro</t>
+          <t>Lentisqueira</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4376,297 +4376,297 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>8000-076</t>
+          <t>3070-235</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Faro</t>
+          <t>Coimbra</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Raviv</t>
+          <t>Maurie</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>O'Hdirscoll</t>
+          <t>Soppit</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>rohdirscolldt@squarespace.com</t>
+          <t>msoppitfb@diigo.com</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>221-517-7900</t>
+          <t>708-878-2667</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>21946 Straubel Plaza</t>
+          <t>586 Scofield Court</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Nogent-le-Rotrou</t>
+          <t>Messina</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>28404 CEDEX</t>
+          <t>98157</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Centre</t>
+          <t>Sicilia</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Beaufort</t>
+          <t>Giffie</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ward</t>
+          <t>Lindwasser</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>bwarddx@weebly.com</t>
+          <t>glindwasserfc@techcrunch.com</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>405-408-0157</t>
+          <t>962-889-1344</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>455 Grayhawk Alley</t>
+          <t>546 Atwood Terrace</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Pécs</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>73119</t>
+          <t>7610</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Baranya</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jannel</t>
+          <t>Darill</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Manilow</t>
+          <t>Semark</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jmanilowdz@edublogs.org</t>
+          <t>dsemarkff@dell.com</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>659-324-3532</t>
+          <t>203-847-5190</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>9 Stephen Place</t>
+          <t>70 Meadow Vale Pass</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Waterbury</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0487</t>
+          <t>06705</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Connecticut</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Renell</t>
+          <t>Ely</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Crippell</t>
+          <t>Losano</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rcrippelle1@berkeley.edu</t>
+          <t>elosanofh@angelfire.com</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>178-434-6534</t>
+          <t>357-413-9311</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>9393 Loftsgordon Street</t>
+          <t>7 Nobel Plaza</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Täby</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>37142</t>
+          <t>183 77</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Veneto</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Viviyan</t>
+          <t>Herman</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mariotte</t>
+          <t>Durman</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vmariottee3@naver.com</t>
+          <t>hdurmanfm@sina.com.cn</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>612-195-7396</t>
+          <t>355-349-7818</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3384 Hazelcrest Hill</t>
+          <t>495 Cardinal Junction</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Saint Paul</t>
+          <t>Flen</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>55103</t>
+          <t>642 24</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Södermanland</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Amanda</t>
+          <t>Licha</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Oseman</t>
+          <t>Bowdery</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>aosemaneg@washingtonpost.com</t>
+          <t>lbowderyfo@narod.ru</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>678-524-2142</t>
+          <t>706-407-2562</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>286 Jenifer Point</t>
+          <t>9 Burrows Court</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Bemposta</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4730-010</t>
+          <t>4710-627</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4687,536 +4687,536 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Anthia</t>
+          <t>Lila</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tenwick</t>
+          <t>Gres</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>atenwickem@yahoo.co.jp</t>
+          <t>lgresfy@washington.edu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>792-491-8249</t>
+          <t>454-206-8295</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>22462 Stone Corner Plaza</t>
+          <t>92 Cherokee Junction</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Nykvarn</t>
+          <t>Alfeizerão</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>155 33</t>
+          <t>2460-105</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Leiria</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>529</v>
+        <v>576</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ethelind</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kidder</t>
+          <t>Baish</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ekiddereo@nymag.com</t>
+          <t>fbaishfz@mapquest.com</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>312-796-3542</t>
+          <t>934-112-3043</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>7929 Memorial Crossing</t>
+          <t>4345 Florence Street</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>60630</t>
+          <t>42055 CEDEX 2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dory</t>
+          <t>Chere</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Filpo</t>
+          <t>Longforth</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>dfilpof8@yolasite.com</t>
+          <t>clongforthg0@51.la</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>826-162-0108</t>
+          <t>702-594-8029</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>87094 Dapin Way</t>
+          <t>554 Meadow Vale Point</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Monte do Outeiro</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>7005-719</t>
+          <t>40896</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Évora</t>
+          <t>Guerrero</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Barbe</t>
+          <t>Hayyim</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Beden</t>
+          <t>Duigan</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>bbedenfd@home.pl</t>
+          <t>hduigang2@ebay.com</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>202-285-4147</t>
+          <t>376-313-6538</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2484 Farmco Court</t>
+          <t>07 Elka Center</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Seremban</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20530</t>
+          <t>70536</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>Negeri Sembilan</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dennison</t>
+          <t>Lorin</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Begwell</t>
+          <t>Murdie</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>dbegwellfg@eepurl.com</t>
+          <t>lmurdieg7@smh.com.au</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>187-985-3885</t>
+          <t>283-309-1619</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>88 Morrow Crossing</t>
+          <t>90 Elka Lane</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Tidaholm</t>
+          <t>Valence</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>522 24</t>
+          <t>26029 CEDEX</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Västra Götaland</t>
+          <t>Rhône-Alpes</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ram</t>
+          <t>Tristam</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Karlowicz</t>
+          <t>Pickless</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rkarlowiczfm@github.io</t>
+          <t>tpicklessg8@toplist.cz</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>652-491-7805</t>
+          <t>745-970-9280</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>48 Northview Pass</t>
+          <t>6 Continental Circle</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Sangalhos</t>
+          <t>Nässjö</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3780-115</t>
+          <t>571 92</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Aveiro</t>
+          <t>Jönköping</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Thom</t>
+          <t>Tamma</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Jedrachowicz</t>
+          <t>Forsdyke</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>tjedrachowiczft@shutterfly.com</t>
+          <t>tforsdykega@arizona.edu</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>209-789-8151</t>
+          <t>374-553-8065</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>938 Autumn Leaf Plaza</t>
+          <t>76404 American Way</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Fresno</t>
+          <t>Bradford</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>93704</t>
+          <t>BD7</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>England</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gabriela</t>
+          <t>Claudette</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Noddle</t>
+          <t>Brellin</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>gnoddlega@elegantthemes.com</t>
+          <t>cbrellingb@sourceforge.net</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>406-948-6463</t>
+          <t>966-867-8074</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0815 Claremont Parkway</t>
+          <t>5 Westport Court</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Billings</t>
+          <t>Barreiros</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>59112</t>
+          <t>4615-492</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Porto</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dede</t>
+          <t>Addy</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Colbrun</t>
+          <t>Molder</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>dcolbrungd@spiegel.de</t>
+          <t>amoldergq@desdev.cn</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>972-573-4172</t>
+          <t>884-775-8416</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2390 Riverside Alley</t>
+          <t>3 Sutherland Crossing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Motala</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>75216</t>
+          <t>591 94</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Östergötland</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dierdre</t>
+          <t>Iolanthe</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>McDell</t>
+          <t>Stolte</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>dmcdellgi@gnu.org</t>
+          <t>istoltegs@a8.net</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>564-619-2846</t>
+          <t>101-976-3567</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8 Fulton Alley</t>
+          <t>38574 Sage Place</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Kota Bharu</t>
+          <t>Casal</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>15500</t>
+          <t>3700-732</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Kelantan</t>
+          <t>Aveiro</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Debby</t>
+          <t>Pet</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Foskew</t>
+          <t>Threadgold</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>dfoskewgm@youku.com</t>
+          <t>pthreadgoldh9@surveymonkey.com</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>329-911-9882</t>
+          <t>233-558-7680</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>572 Forster Place</t>
+          <t>660 Fallview Road</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Skellefteå</t>
+          <t>Brunflo</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5226,197 +5226,197 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>931 77</t>
+          <t>834 33</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Jämtland</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Denney</t>
+          <t>Petr</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rubinowitsch</t>
+          <t>Skep</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>drubinowitschgn@123-reg.co.uk</t>
+          <t>pskepht@cmu.edu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>288-460-4858</t>
+          <t>861-865-0391</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5297 3rd Place</t>
+          <t>500 Graceland Road</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Mont-Saint-Hilaire</t>
+          <t>Lons-le-Saunier</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>J3H</t>
+          <t>39004 CEDEX</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Franche-Comté</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Abra</t>
+          <t>Camala</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Daubeny</t>
+          <t>Simkins</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>adaubenygr@gravatar.com</t>
+          <t>csimkinsi6@sciencedirect.com</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>503-280-7331</t>
+          <t>347-207-4812</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4767 Lyons Avenue</t>
+          <t>8 Lotheville Way</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Sainte-Anne-de-Bellevue</t>
+          <t>Limoges</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>H9X</t>
+          <t>87046 CEDEX 1</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Limousin</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Englebert</t>
+          <t>Jeffy</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ort</t>
+          <t>Grewes</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>eorth0@qq.com</t>
+          <t>jgrewesi8@blogtalkradio.com</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>359-653-0573</t>
+          <t>870-934-1085</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1 Lukken Parkway</t>
+          <t>8 Everett Street</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>White Rock</t>
+          <t>Best</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>V4B</t>
+          <t>5684</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Provincie Noord-Brabant</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cornell</t>
+          <t>Kirby</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Georger</t>
+          <t>Saw</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>cgeorgerh8@va.gov</t>
+          <t>ksawig@freewebs.com</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>496-283-1143</t>
+          <t>985-936-6522</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>767 Daystar Pass</t>
+          <t>358 Pawling Alley</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nine</t>
+          <t>Mós</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5426,447 +5426,447 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>4775-446</t>
+          <t>5155-406</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Guarda</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>629</v>
+        <v>687</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dolf</t>
+          <t>Kalila</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Rijkeseis</t>
+          <t>Yaakov</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>drijkeseishg@pagesperso-orange.fr</t>
+          <t>kyaakovj2@cargocollective.com</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>943-475-3803</t>
+          <t>344-626-7304</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>717 Kim Court</t>
+          <t>60476 Cherokee Junction</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>East End</t>
+          <t>Haninge</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>BH21</t>
+          <t>136 49</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>632</v>
+        <v>695</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Bud</t>
+          <t>Caryn</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>O'Callaghan</t>
+          <t>Paty</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>bocallaghanhj@hatena.ne.jp</t>
+          <t>cpatyja@ihg.com</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>824-435-8031</t>
+          <t>915-661-4171</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>5 Bonner Court</t>
+          <t>3024 Melody Junction</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Agen</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>47923 CEDEX 9</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Aquitaine</t>
+          <t>Provincie Noord-Holland</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>642</v>
+        <v>702</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Deborah</t>
+          <t>Elsworth</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Alberts</t>
+          <t>Parkey</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>dalbertsht@mapy.cz</t>
+          <t>eparkeyjh@cloudflare.com</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>305-217-3175</t>
+          <t>639-147-9035</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2 Bashford Park</t>
+          <t>1884 Sloan Way</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>33158</t>
+          <t>0760</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>649</v>
+        <v>706</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pammy</t>
+          <t>Tallia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Milley</t>
+          <t>Roseman</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>pmilleyi0@europa.eu</t>
+          <t>trosemanjl@upenn.edu</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>118-953-9747</t>
+          <t>398-589-7649</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>30 Dryden Drive</t>
+          <t>38572 International Park</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Kota Bharu</t>
+          <t>Lamarosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>15630</t>
+          <t>3025-389</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Kelantan</t>
+          <t>Coimbra</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Maxine</t>
+          <t>Micky</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Shervil</t>
+          <t>Greir</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>mshervilij@wufoo.com</t>
+          <t>mgreirjm@google.ru</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>813-966-7369</t>
+          <t>345-952-0593</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>429 Farragut Circle</t>
+          <t>26 Onsgard Center</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Horton</t>
+          <t>Linköping</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>BS37</t>
+          <t>585 97</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Östergötland</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>670</v>
+        <v>711</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Michaela</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Littlejohn</t>
+          <t>Coorington</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>mlittlejohnil@1und1.de</t>
+          <t>ocooringtonjq@sun.com</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>405-623-4055</t>
+          <t>725-562-4028</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3 Elka Lane</t>
+          <t>98 Straubel Point</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>København</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>73173</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Region Hovedstaden</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kelby</t>
+          <t>Shelia</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Moody</t>
+          <t>Tibbles</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>kmoodyim@sakura.ne.jp</t>
+          <t>stibblesjw@whitehouse.gov</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>346-710-9257</t>
+          <t>627-209-1153</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>346 Fuller Road</t>
+          <t>05 Commercial Court</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Pulau Pinang</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>28020</t>
+          <t>10840</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Pulau Pinang</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>673</v>
+        <v>726</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Marlo</t>
+          <t>Yul</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Runchman</t>
+          <t>Mc Ilory</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>mrunchmanio@nih.gov</t>
+          <t>ymciloryk5@devhub.com</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>770-786-7687</t>
+          <t>129-910-2863</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>77 Messerschmidt Lane</t>
+          <t>3152 Arrowood Drive</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Normandin</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>G0H</t>
+          <t>9730</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Québec</t>
+          <t>Provincie Groningen</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>683</v>
+        <v>733</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Scotti</t>
+          <t>Alexandro</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Tome</t>
+          <t>Salerg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>stomeiy@stanford.edu</t>
+          <t>asalergkc@artisteer.com</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>149-493-1646</t>
+          <t>292-495-3944</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>6160 Crescent Oaks Drive</t>
+          <t>3 Spenser Crossing</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Paris 13</t>
+          <t>Créteil</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>75706 CEDEX 13</t>
+          <t>94009 CEDEX</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5887,536 +5887,536 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Margareta</t>
+          <t>Leela</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Batterson</t>
+          <t>Hartford</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>mbattersonjn@prweb.com</t>
+          <t>lhartfordke@examiner.com</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>251-188-1574</t>
+          <t>762-580-5375</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>93526 Westerfield Avenue</t>
+          <t>8 Ridgeview Crossing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Putrajaya</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>36689</t>
+          <t>62692</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Alabama</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pren</t>
+          <t>Cherish</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Barttrum</t>
+          <t>Divell</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>pbarttrumjx@indiegogo.com</t>
+          <t>cdivellki@i2i.jp</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>999-966-5656</t>
+          <t>843-739-2577</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2 Tony Place</t>
+          <t>36893 Coleman Plaza</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>7026</t>
+          <t>29424</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Sor-Trondelag</t>
+          <t>South Carolina</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Samuele</t>
+          <t>Wilton</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Illyes</t>
+          <t>Nelm</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>sillyesk1@hp.com</t>
+          <t>wnelml1@a8.net</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>427-230-6863</t>
+          <t>848-533-8600</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>39064 Carey Alley</t>
+          <t>225 Maple Wood Road</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Växjö</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>13327 CEDEX 15</t>
+          <t>352 54</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Kronoberg</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>726</v>
+        <v>784</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tedie</t>
+          <t>Denis</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Prestidge</t>
+          <t>Petruk</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>tprestidgek5@about.me</t>
+          <t>dpetruklr@auda.org.au</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>512-812-1580</t>
+          <t>490-305-6656</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>85 Glacier Hill Street</t>
+          <t>7 Merrick Point</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>København</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>78759</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Region Hovedstaden</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Adena</t>
+          <t>Siegfried</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Chilcotte</t>
+          <t>McCandless</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>achilcottekb@huffingtonpost.com</t>
+          <t>smccandlesslz@ucla.edu</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>287-299-8835</t>
+          <t>608-776-1539</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0 Ramsey Hill</t>
+          <t>41 Lakewood Plaza</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Putrajaya</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>62606</t>
+          <t>302 55</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Putrajaya</t>
+          <t>Halland</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Eward</t>
+          <t>Bartholomew</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Matthiesen</t>
+          <t>Goldingay</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ematthiesenkg@networkadvertising.org</t>
+          <t>bgoldingayma@google.cn</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>507-623-2911</t>
+          <t>401-796-3382</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0897 Oneill Alley</t>
+          <t>7212 Florence Hill</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Amarillo</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>69413 CEDEX 06</t>
+          <t>79171</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Rhône-Alpes</t>
+          <t>Texas</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>744</v>
+        <v>807</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Beverie</t>
+          <t>Schuyler</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Merrison</t>
+          <t>Mundell</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>bmerrisonkn@techcrunch.com</t>
+          <t>smundellme@ehow.com</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>117-872-3435</t>
+          <t>485-807-3320</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>79484 Monument Alley</t>
+          <t>580 Texas Street</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Los Pinos</t>
+          <t>Paraíso</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>93605</t>
+          <t>4550-455</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Veracruz Llave</t>
+          <t>Aveiro</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Agata</t>
+          <t>Gerome</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chivers</t>
+          <t>Bartolomeoni</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>achiversl0@hostgator.com</t>
+          <t>gbartolomeonimn@alexa.com</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>930-705-6847</t>
+          <t>916-793-3416</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>513 Schlimgen Pass</t>
+          <t>4 Homewood Point</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>København</t>
+          <t>Sacramento</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>94207</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Region Hovedstaden</t>
+          <t>California</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>758</v>
+        <v>817</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Emmit</t>
+          <t>Revkah</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Stutt</t>
+          <t>Humblestone</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>estuttl1@walmart.com</t>
+          <t>rhumblestonemo@google.es</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>106-868-2468</t>
+          <t>735-598-7464</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0 Fulton Street</t>
+          <t>20 Moose Lane</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Denton</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>M34</t>
+          <t>44945 CEDEX 9</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ashly</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Amesbury</t>
+          <t>Meriot</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>aamesburym4@jalbum.net</t>
+          <t>ameriotmw@usatoday.com</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>697-654-4126</t>
+          <t>805-147-4447</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>6076 Redwing Trail</t>
+          <t>1449 Oak Alley</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Paço</t>
+          <t>Antony</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>4615-196</t>
+          <t>92169 CEDEX</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ettore</t>
+          <t>Jobi</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Kisting</t>
+          <t>Mountney</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ekistingmb@yale.edu</t>
+          <t>jmountneymy@wordpress.com</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>642-265-1385</t>
+          <t>906-461-9183</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>010 Lighthouse Bay Road</t>
+          <t>0 Lunder Lane</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Vila Moreira</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6426,647 +6426,647 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>7940-006</t>
+          <t>2380-638</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Beja</t>
+          <t>Santarém</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Claudette</t>
+          <t>Brett</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ghelarducci</t>
+          <t>Daville</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>cghelarduccimh@skype.com</t>
+          <t>bdavillen9@elegantthemes.com</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>166-492-8016</t>
+          <t>717-246-8441</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>65406 Pennsylvania Hill</t>
+          <t>096 Ramsey Junction</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Carreira</t>
+          <t>Lancaster</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>4820-021</t>
+          <t>17622</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Emogene</t>
+          <t>Pennie</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Creeboe</t>
+          <t>Hatfull</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ecreeboemi@edublogs.org</t>
+          <t>phatfullnc@economist.com</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>167-553-2210</t>
+          <t>616-793-8684</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0480 Bay Street</t>
+          <t>2 Schlimgen Terrace</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Claresholm</t>
+          <t>Grand Rapids</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>V2T</t>
+          <t>49505</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>Michigan</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Rustie</t>
+          <t>Evangelin</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Hoonahan</t>
+          <t>Dymidowski</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>rhoonahanmx@prweb.com</t>
+          <t>edymidowskinf@homestead.com</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>294-492-6190</t>
+          <t>590-359-6825</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>67925 Troy Junction</t>
+          <t>8 Ryan Crossing</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Alor Setar</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>05552</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Kedah</t>
+          <t>Kanton Zürich</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Gert</t>
+          <t>Rheba</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Maskill</t>
+          <t>Yarrell</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>gmaskillmz@youtu.be</t>
+          <t>ryarrellng@google.pl</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>858-684-3598</t>
+          <t>850-656-9356</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>32 Graceland Alley</t>
+          <t>163 Dixon Parkway</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Tallahassee</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>30132</t>
+          <t>32304</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Veneto</t>
+          <t>Florida</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Myrtia</t>
+          <t>Celene</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Everard</t>
+          <t>Saylor</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>meverardn4@t-online.de</t>
+          <t>csaylornh@paypal.com</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>238-519-4580</t>
+          <t>219-904-1810</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>9609 Dexter Court</t>
+          <t>489 5th Alley</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Portela</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>4750-445</t>
+          <t>M3H</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Ontario</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Alfy</t>
+          <t>Ichabod</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Beamish</t>
+          <t>Strowger</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>abeamishng@netvibes.com</t>
+          <t>istrowgernk@bandcamp.com</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>255-426-4484</t>
+          <t>585-907-7372</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>343 International Drive</t>
+          <t>96046 Mandrake Hill</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Auch</t>
+          <t>Rochester</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>32004 CEDEX</t>
+          <t>14619</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Midi-Pyrénées</t>
+          <t>New York</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sharia</t>
+          <t>Chev</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cathersides</t>
+          <t>Winsom</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>scathersideso0@yolasite.com</t>
+          <t>cwinsomns@netscape.com</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>405-533-4489</t>
+          <t>838-926-3489</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>6327 Thierer Crossing</t>
+          <t>7 Oxford Lane</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Blois</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>73179</t>
+          <t>41919 CEDEX 9</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Centre</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>876</v>
+        <v>859</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Paco</t>
+          <t>Delano</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Reck</t>
+          <t>Candie</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>preckob@loc.gov</t>
+          <t>dcandienu@toplist.cz</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>629-843-1258</t>
+          <t>425-905-1728</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>8 Ronald Regan Hill</t>
+          <t>3526 Farragut Way</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Vetlanda</t>
+          <t>Serra de Água</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>574 91</t>
+          <t>9350-324</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Ilha da Madeira</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Justis</t>
+          <t>Garey</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Pawfoot</t>
+          <t>Willmont</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>jpawfootof@bigcartel.com</t>
+          <t>gwillmonto0@webmd.com</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>809-695-6645</t>
+          <t>854-896-8016</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>61 South Lane</t>
+          <t>140 Glacier Hill Way</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>København</t>
+          <t>Agen</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>47923 CEDEX 9</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Region Hovedstaden</t>
+          <t>Aquitaine</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Salomone</t>
+          <t>Sander</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Saffen</t>
+          <t>Landsberg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ssaffenon@yahoo.co.jp</t>
+          <t>slandsbergod@privacy.gov.au</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>204-376-6526</t>
+          <t>671-943-1937</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>72 Cascade Pass</t>
+          <t>66 Anhalt Terrace</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>La Cañada</t>
+          <t>Paços</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>53570</t>
+          <t>3700-803</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Aveiro</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Obadias</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Danielsen</t>
+          <t>Flatte</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>hdanielsenos@livejournal.com</t>
+          <t>oflatteog@miitbeian.gov.cn</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>208-530-1847</t>
+          <t>269-316-8828</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>35731 Colorado Avenue</t>
+          <t>77358 Carioca Terrace</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Smedjebacken</t>
+          <t>Killam</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>777 82</t>
+          <t>A0A</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Dalarna</t>
+          <t>Alberta</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ransell</t>
+          <t>Leshia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Soughton</t>
+          <t>Dunlap</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>rsoughtonot@loc.gov</t>
+          <t>ldunlapom@edublogs.org</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>160-596-8690</t>
+          <t>596-252-2146</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>844 Old Gate Park</t>
+          <t>04083 Spaight Crossing</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Carvalhal Redondo</t>
+          <t>Schiltigheim</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>3525-405</t>
+          <t>67311 CEDEX</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Viseu</t>
+          <t>Alsace</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cesare</t>
+          <t>Nevins</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Rudland</t>
+          <t>Easson</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>crudlandp2@feedburner.com</t>
+          <t>neassonoz@cpanel.net</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>993-927-8569</t>
+          <t>569-639-9453</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>702 Eggendart Alley</t>
+          <t>51972 Shoshone Trail</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Katrineholm</t>
+          <t>Göteborg</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7076,247 +7076,247 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>641 22</t>
+          <t>412 79</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Södermanland</t>
+          <t>Västra Götaland</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Codi</t>
+          <t>Peria</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Gier</t>
+          <t>Parfrey</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>cgierp3@purevolume.com</t>
+          <t>pparfreyp5@goodreads.com</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>771-478-0438</t>
+          <t>543-355-8955</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>8 Delaware Alley</t>
+          <t>5852 Forest Way</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Coquitlam</t>
+          <t>Torre</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>V3B</t>
+          <t>5050-345</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>British Columbia</t>
+          <t>Vila Real</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Slade</t>
+          <t>Ann-marie</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ferrierio</t>
+          <t>Schulke</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>sferrieriop4@weibo.com</t>
+          <t>aschulkepj@army.mil</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>571-480-6035</t>
+          <t>366-906-0671</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>057 Doe Crossing Court</t>
+          <t>41981 Florence Way</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>La Guadalupe</t>
+          <t>Saumur</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>71703</t>
+          <t>49411 CEDEX</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Oaxaca</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Guthry</t>
+          <t>Eleanore</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Kobel</t>
+          <t>Hake</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>gkobelp5@dell.com</t>
+          <t>ehakepo@java.com</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>492-756-9229</t>
+          <t>701-983-6242</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>30600 Westerfield Pass</t>
+          <t>27831 Scofield Junction</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hanover</t>
+          <t>Solna</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>N4N</t>
+          <t>169 35</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Ontario</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Emelyne</t>
+          <t>Ellissa</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pitbladdo</t>
+          <t>Cherryman</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>epitbladdop7@tmall.com</t>
+          <t>echerrymanpr@nba.com</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>805-485-8044</t>
+          <t>158-852-0695</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>6 Crescent Oaks Drive</t>
+          <t>87 Northport Alley</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Bakersfield</t>
+          <t>Karlstad</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>93311</t>
+          <t>652 27</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Värmland</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Zita</t>
+          <t>Frasquito</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Shillabear</t>
+          <t>Mole</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>zshillabearpg@google.it</t>
+          <t>fmoleq0@psu.edu</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>782-923-7021</t>
+          <t>998-677-5320</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>190 Stone Corner Crossing</t>
+          <t>949 Shelley Junction</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Futuroscope</t>
+          <t>Rueil-Malmaison</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7326,147 +7326,147 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>86964 CEDEX</t>
+          <t>92509 CEDEX</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Poitou-Charentes</t>
+          <t>Île-de-France</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jemmie</t>
+          <t>Ernestine</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Brinsden</t>
+          <t>Pilkington</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>jbrinsdenpk@deviantart.com</t>
+          <t>epilkingtonq1@themeforest.net</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>292-424-7363</t>
+          <t>953-242-4762</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>85957 Heath Drive</t>
+          <t>68 Washington Hill</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Vicente Guerrero</t>
+          <t>Witzenhausen</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>40230</t>
+          <t>37217</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Guerrero</t>
+          <t>Hessen</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Jeanette</t>
+          <t>Lenore</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Braunstein</t>
+          <t>Gervaise</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>jbraunsteinpl@posterous.com</t>
+          <t>lgervaiseq3@japanpost.jp</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>619-712-4606</t>
+          <t>143-889-5633</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>06240 Kim Lane</t>
+          <t>8 Ryan Drive</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Carcavelos</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>92191</t>
+          <t>4620-031</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Porto</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>925</v>
+        <v>950</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Currie</t>
+          <t>De</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Viney</t>
+          <t>Schusterl</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>cvineypo@friendfeed.com</t>
+          <t>dschusterlqd@shop-pro.jp</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>903-293-7041</t>
+          <t>573-546-2532</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>57 Delladonna Avenue</t>
+          <t>014 Starling Hill</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Ourentã</t>
+          <t>Paço</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7476,447 +7476,447 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>3060-445</t>
+          <t>4615-196</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Porto</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Clemmy</t>
+          <t>Chiquia</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Hugonnet</t>
+          <t>Semrad</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>chugonnetpt@ocn.ne.jp</t>
+          <t>csemradqf@plala.or.jp</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>573-558-1197</t>
+          <t>279-786-5725</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>3 Kingsford Plaza</t>
+          <t>2599 Sauthoff Point</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Lazaro Cardenas</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>28914</t>
+          <t>22510</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Baja California</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>931</v>
+        <v>953</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Evonne</t>
+          <t>L;urette</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Keyse</t>
+          <t>Betteriss</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ekeysepu@so-net.ne.jp</t>
+          <t>lbetterissqg@microsoft.com</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>662-175-1264</t>
+          <t>859-423-7017</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>95 Montana Point</t>
+          <t>6979 Canary Park</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Bolhos</t>
+          <t>Lexington</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2525-105</t>
+          <t>40524</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Kentucky</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>943</v>
+        <v>969</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Westley</t>
+          <t>Edan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Fibbens</t>
+          <t>Ber</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>wfibbensq6@google.com.au</t>
+          <t>eberqw@live.com</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>612-809-2297</t>
+          <t>200-544-7353</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>59 Rockefeller Street</t>
+          <t>8748 Becker Avenue</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>West Kelowna</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>55470</t>
+          <t>V1Z</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>British Columbia</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>944</v>
+        <v>970</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dusty</t>
+          <t>Ashla</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Chasles</t>
+          <t>Pattillo</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>dchaslesq7@icio.us</t>
+          <t>apattilloqx@wix.com</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>917-375-9263</t>
+          <t>751-280-2306</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>60867 Acker Lane</t>
+          <t>5331 Orin Parkway</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Umeå</t>
+          <t>Outeiro</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>904 22</t>
+          <t>4540-379</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Västerbotten</t>
+          <t>Aveiro</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Phelia</t>
+          <t>Lindy</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Barlee</t>
+          <t>Janodet</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>pbarleer2@springer.com</t>
+          <t>ljanodetr6@addtoany.com</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>194-690-5849</t>
+          <t>274-236-7623</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>5482 Gulseth Drive</t>
+          <t>20149 Hoffman Terrace</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Astromil</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>4585-794</t>
+          <t>31403 CEDEX 9</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Midi-Pyrénées</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Norry</t>
+          <t>Ferdinande</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Kitchener</t>
+          <t>Kubanek</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>nkitchenerr6@usnews.com</t>
+          <t>fkubanekra@e-recht24.de</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>553-538-6991</t>
+          <t>255-444-5274</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>94 Dunning Lane</t>
+          <t>40 Eggendart Alley</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Hägersten</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>4905-014</t>
+          <t>129 07</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Shelbi</t>
+          <t>Georgeta</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Merrisson</t>
+          <t>Hankey</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>smerrissonrf@chicagotribune.com</t>
+          <t>ghankeyre@1688.com</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>821-851-0111</t>
+          <t>818-165-7420</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>5974 Colorado Lane</t>
+          <t>580 Sauthoff Street</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Lidingö</t>
+          <t>Glendale</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>181 23</t>
+          <t>91210</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>California</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sissy</t>
+          <t>Kariotta</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Huntall</t>
+          <t>Janiak</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>shuntallrg@soundcloud.com</t>
+          <t>kjaniakrf@go.com</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>782-249-8908</t>
+          <t>703-282-1963</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2 Saint Paul Court</t>
+          <t>1916 Jana Court</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Lidingö</t>
+          <t>Catujal</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>181 23</t>
+          <t>2680-333</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Lisboa</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Hermione</t>
+          <t>Chickie</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kerfoot</t>
+          <t>Derell</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>hkerfootri@sun.com</t>
+          <t>cderellrp@auda.org.au</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>280-551-1638</t>
+          <t>229-170-8719</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>51 Superior Center</t>
+          <t>3 Eagle Crest Circle</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Saint-Herblain</t>
+          <t>Saint-Laurent-Blangy</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7926,62 +7926,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>44804 CEDEX</t>
+          <t>62055 CEDEX</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>993</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Galina</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Ginner</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>gginnerrk@is.gd</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>267-155-9498</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>362 Melrose Court</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Philadelphia</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>19120</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Pennsylvania</t>
+          <t>Nord-Pas-de-Calais</t>
         </is>
       </c>
     </row>
